--- a/ChameleonData/StrideTimes/StrideOutputs/Snow_3_5_4_18_GH019820_Event_2.xlsx
+++ b/ChameleonData/StrideTimes/StrideOutputs/Snow_3_5_4_18_GH019820_Event_2.xlsx
@@ -7,10 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB hindlimb" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB ankle" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC hindlimb" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC ankle" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_forelimb" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_forelimb" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_wrist" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_wrist" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_hindlimb" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_hindlimb" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_ankle" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_ankle" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +432,79 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +520,57 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>stride_1_angle_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_max_hip_height_height</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_min_hip_height_height</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>stride_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_A</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_B</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_max_hip_height_height</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_min_hip_height_height</t>
         </is>
       </c>
     </row>
@@ -453,10 +579,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>82.67592182453004</v>
+        <v>82.8517019980858</v>
       </c>
       <c r="C2" t="n">
-        <v>89.69570399528514</v>
+        <v>82.8517019980858</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-55.03973269564935</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.665680149879476</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0131879844878756</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.007546413459838133</v>
+      </c>
+      <c r="H2" t="n">
+        <v>89.4127959576679</v>
+      </c>
+      <c r="I2" t="n">
+        <v>89.4127959576679</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-46.63010551818694</v>
+      </c>
+      <c r="K2" t="n">
+        <v>47.29059294449885</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0230462523493726</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.01787073431467799</v>
       </c>
     </row>
     <row r="3">
@@ -464,2849 +620,2788 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>82.60957604429764</v>
-      </c>
-      <c r="C3" t="n">
-        <v>89.68896080854336</v>
-      </c>
+        <v>82.67592182453004</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>89.69570399528514</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>82.52315148310883</v>
-      </c>
-      <c r="C4" t="n">
-        <v>89.36897862416492</v>
-      </c>
+        <v>82.60957604429764</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>89.68896080854336</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>82.77593436447781</v>
-      </c>
-      <c r="C5" t="n">
-        <v>89.44961699240146</v>
-      </c>
+        <v>82.52315148310883</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>89.36897862416492</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83.26152870253797</v>
-      </c>
-      <c r="C6" t="n">
-        <v>89.12211664000776</v>
-      </c>
+        <v>82.77593436447781</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>89.44961699240146</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>85.16082758575827</v>
-      </c>
-      <c r="C7" t="n">
-        <v>89.16088670815844</v>
-      </c>
+        <v>83.26152870253797</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>89.12211664000776</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>85.40028427264662</v>
-      </c>
-      <c r="C8" t="n">
-        <v>88.80579296207877</v>
-      </c>
+        <v>85.16082758575827</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>89.16088670815844</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>87.55209066340208</v>
-      </c>
-      <c r="C9" t="n">
-        <v>88.82056853412344</v>
-      </c>
+        <v>85.40028427264662</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>88.80579296207877</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>87.75524557575081</v>
-      </c>
-      <c r="C10" t="n">
-        <v>89.14927975342279</v>
-      </c>
+        <v>87.55209066340208</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>88.82056853412344</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>89.2805436383304</v>
-      </c>
-      <c r="C11" t="n">
-        <v>88.91306134213549</v>
-      </c>
+        <v>87.75524557575081</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>89.14927975342279</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>89.31751396777416</v>
-      </c>
-      <c r="C12" t="n">
-        <v>88.67220423316026</v>
-      </c>
+        <v>89.2805436383304</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>88.91306134213549</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>89.25884212930463</v>
-      </c>
-      <c r="C13" t="n">
-        <v>88.53778856084651</v>
-      </c>
+        <v>89.31751396777416</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>88.67220423316026</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>89.23074194872306</v>
-      </c>
-      <c r="C14" t="n">
-        <v>88.2357587303316</v>
-      </c>
+        <v>89.25884212930463</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>88.53778856084651</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>89.64115566638294</v>
-      </c>
-      <c r="C15" t="n">
-        <v>88.25794319276383</v>
-      </c>
+        <v>89.23074194872306</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>88.2357587303316</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>89.70893078931566</v>
-      </c>
-      <c r="C16" t="n">
-        <v>89.69378469419487</v>
-      </c>
+        <v>89.64115566638294</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>88.25794319276383</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>89.61964016475704</v>
-      </c>
-      <c r="C17" t="n">
-        <v>89.77116322178493</v>
-      </c>
+        <v>89.70893078931566</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>89.69378469419487</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>89.60403962015234</v>
-      </c>
-      <c r="C18" t="n">
-        <v>88.96314114962192</v>
-      </c>
+        <v>89.61964016475704</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>89.77116322178493</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>89.84249523185841</v>
-      </c>
-      <c r="C19" t="n">
-        <v>88.9643102513018</v>
-      </c>
+        <v>89.60403962015234</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>88.96314114962192</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>89.75046978010913</v>
-      </c>
-      <c r="C20" t="n">
-        <v>88.38640102213773</v>
-      </c>
+        <v>89.84249523185841</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>88.9643102513018</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>88.61375929838005</v>
-      </c>
-      <c r="C21" t="n">
-        <v>88.70892888471634</v>
-      </c>
+        <v>89.75046978010913</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>88.38640102213773</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>88.43974383617382</v>
-      </c>
-      <c r="C22" t="n">
-        <v>87.4616136155163</v>
-      </c>
+        <v>88.61375929838005</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>88.70892888471634</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>86.8388844516771</v>
-      </c>
-      <c r="C23" t="n">
-        <v>87.45117850070577</v>
-      </c>
+        <v>88.43974383617382</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>87.4616136155163</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>87.12143532482732</v>
-      </c>
-      <c r="C24" t="n">
-        <v>87.55099720116928</v>
-      </c>
+        <v>86.8388844516771</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>87.45117850070577</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>84.44854471766541</v>
-      </c>
-      <c r="C25" t="n">
-        <v>87.62814556707491</v>
-      </c>
+        <v>87.12143532482732</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>87.55099720116928</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>84.35233099273609</v>
-      </c>
-      <c r="C26" t="n">
-        <v>87.88805844399521</v>
-      </c>
+        <v>84.44854471766541</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>87.62814556707491</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>82.06877743826431</v>
-      </c>
-      <c r="C27" t="n">
-        <v>87.75581199277659</v>
-      </c>
+        <v>84.35233099273609</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>87.88805844399521</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>82.2085089454161</v>
-      </c>
-      <c r="C28" t="n">
-        <v>87.36095419480574</v>
-      </c>
+        <v>82.06877743826431</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>87.75581199277659</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>79.27573850596754</v>
-      </c>
-      <c r="C29" t="n">
-        <v>87.12097692140219</v>
-      </c>
+        <v>82.2085089454161</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>87.36095419480574</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>79.42761286424762</v>
-      </c>
-      <c r="C30" t="n">
-        <v>85.8819777907251</v>
-      </c>
+        <v>79.27573850596754</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>87.12097692140219</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>75.19175278622141</v>
-      </c>
-      <c r="C31" t="n">
-        <v>85.8634340523442</v>
-      </c>
+        <v>79.42761286424762</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>85.8819777907251</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>75.48814679861455</v>
-      </c>
-      <c r="C32" t="n">
-        <v>85.8095690878387</v>
-      </c>
+        <v>75.19175278622141</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>85.8634340523442</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>72.96149020199631</v>
-      </c>
-      <c r="C33" t="n">
-        <v>86.10080982236197</v>
-      </c>
+        <v>75.48814679861455</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>85.8095690878387</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>72.46737200601819</v>
-      </c>
-      <c r="C34" t="n">
-        <v>85.13364815568926</v>
-      </c>
+        <v>72.96149020199631</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>86.10080982236197</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>67.6217237213317</v>
-      </c>
-      <c r="C35" t="n">
-        <v>85.07541845835641</v>
-      </c>
+        <v>72.46737200601819</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>85.13364815568926</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>66.77309269162097</v>
-      </c>
-      <c r="C36" t="n">
-        <v>84.62649758727525</v>
-      </c>
+        <v>67.6217237213317</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>85.07541845835641</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>55.37445407073608</v>
-      </c>
-      <c r="C37" t="n">
-        <v>84.54913276316999</v>
-      </c>
+        <v>66.77309269162097</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>84.62649758727525</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>55.72497805959769</v>
-      </c>
-      <c r="C38" t="n">
-        <v>82.69271590440752</v>
-      </c>
+        <v>55.37445407073608</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>84.54913276316999</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>45.58904493030823</v>
-      </c>
-      <c r="C39" t="n">
-        <v>82.42413298274478</v>
-      </c>
+        <v>55.72497805959769</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>82.69271590440752</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>45.01251286146598</v>
-      </c>
-      <c r="C40" t="n">
-        <v>81.37971161751486</v>
-      </c>
+        <v>45.58904493030823</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>82.42413298274478</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>33.18340476389815</v>
-      </c>
-      <c r="C41" t="n">
-        <v>81.44270997663587</v>
-      </c>
+        <v>45.01251286146598</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>81.37971161751486</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>32.72045268658167</v>
-      </c>
-      <c r="C42" t="n">
-        <v>81.90335079552982</v>
-      </c>
+        <v>33.18340476389815</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>81.44270997663587</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>22.66963632314985</v>
-      </c>
-      <c r="C43" t="n">
-        <v>81.37723981970839</v>
-      </c>
+        <v>32.72045268658167</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>81.90335079552982</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>22.202693982559</v>
-      </c>
-      <c r="C44" t="n">
-        <v>80.20189208532331</v>
-      </c>
+        <v>22.66963632314985</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>81.37723981970839</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.665865632922014</v>
-      </c>
-      <c r="C45" t="n">
-        <v>79.62838732789005</v>
-      </c>
+        <v>22.202693982559</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>80.20189208532331</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.665494666836938</v>
-      </c>
-      <c r="C46" t="n">
-        <v>78.8646647891982</v>
-      </c>
+        <v>6.665865632922014</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>79.62838732789005</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1291211867596541</v>
-      </c>
-      <c r="C47" t="n">
-        <v>77.99087102725987</v>
-      </c>
+        <v>6.665494666836938</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>78.8646647891982</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.4574194727587749</v>
-      </c>
-      <c r="C48" t="n">
-        <v>77.57176907864213</v>
-      </c>
+        <v>-0.1291211867596541</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>77.99087102725987</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-8.514325538918319</v>
-      </c>
-      <c r="C49" t="n">
-        <v>77.45823025755125</v>
-      </c>
+        <v>-0.4574194727587749</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>77.57176907864213</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-8.502639583478782</v>
-      </c>
-      <c r="C50" t="n">
-        <v>75.44736607760053</v>
-      </c>
+        <v>-8.514325538918319</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>77.45823025755125</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-20.95777912166355</v>
-      </c>
-      <c r="C51" t="n">
-        <v>75.36867528890974</v>
-      </c>
+        <v>-8.502639583478782</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>75.44736607760053</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-20.70354432352652</v>
-      </c>
-      <c r="C52" t="n">
-        <v>72.91952498617378</v>
-      </c>
+        <v>-20.95777912166355</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>75.36867528890974</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-26.68793254629334</v>
-      </c>
-      <c r="C53" t="n">
-        <v>72.85067534631779</v>
-      </c>
+        <v>-20.70354432352652</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>72.91952498617378</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-26.07764488957871</v>
-      </c>
-      <c r="C54" t="n">
-        <v>71.74522837704428</v>
-      </c>
+        <v>-26.68793254629334</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>72.85067534631779</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-32.62901223719046</v>
-      </c>
-      <c r="C55" t="n">
-        <v>71.72396682959889</v>
-      </c>
+        <v>-26.07764488957871</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>71.74522837704428</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-32.64559466947397</v>
-      </c>
-      <c r="C56" t="n">
-        <v>68.81228368149181</v>
-      </c>
+        <v>-32.62901223719046</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>71.72396682959889</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-36.91795433212066</v>
-      </c>
-      <c r="C57" t="n">
-        <v>68.29260084468847</v>
-      </c>
+        <v>-32.64559466947397</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>68.81228368149181</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-36.70543886852979</v>
-      </c>
-      <c r="C58" t="n">
-        <v>66.89779963718362</v>
-      </c>
+        <v>-36.91795433212066</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>68.29260084468847</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-40.7948544458697</v>
-      </c>
-      <c r="C59" t="n">
-        <v>66.84888768265347</v>
-      </c>
+        <v>-36.70543886852979</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>66.89779963718362</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-40.5537425098918</v>
-      </c>
-      <c r="C60" t="n">
-        <v>63.70469314309043</v>
-      </c>
+        <v>-40.7948544458697</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>66.84888768265347</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-43.51497084919411</v>
-      </c>
-      <c r="C61" t="n">
-        <v>63.63835587339447</v>
-      </c>
+        <v>-40.5537425098918</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>63.70469314309043</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-43.6940674962264</v>
-      </c>
-      <c r="C62" t="n">
-        <v>60.7890022630221</v>
-      </c>
+        <v>-43.51497084919411</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>63.63835587339447</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-45.47668710038461</v>
-      </c>
-      <c r="C63" t="n">
-        <v>60.20388186405171</v>
-      </c>
+        <v>-43.6940674962264</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>60.7890022630221</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-45.41324433630594</v>
-      </c>
-      <c r="C64" t="n">
-        <v>55.83431257647368</v>
-      </c>
+        <v>-45.47668710038461</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>60.20388186405171</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-46.1946401526104</v>
-      </c>
-      <c r="C65" t="n">
-        <v>55.13295681525342</v>
-      </c>
+        <v>-45.41324433630594</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>55.83431257647368</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-46.48643927178647</v>
-      </c>
-      <c r="C66" t="n">
-        <v>52.41387355706805</v>
-      </c>
+        <v>-46.1946401526104</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>55.13295681525342</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-48.54164647367417</v>
-      </c>
-      <c r="C67" t="n">
-        <v>52.25683127389556</v>
-      </c>
+        <v>-46.48643927178647</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>52.41387355706805</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-48.76933577222581</v>
-      </c>
-      <c r="C68" t="n">
-        <v>49.09843148180736</v>
-      </c>
+        <v>-48.54164647367417</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>52.25683127389556</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-52.35976775422969</v>
-      </c>
-      <c r="C69" t="n">
-        <v>48.98630476934146</v>
-      </c>
+        <v>-48.76933577222581</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>49.09843148180736</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-52.31136687634984</v>
-      </c>
-      <c r="C70" t="n">
-        <v>45.59488111965625</v>
-      </c>
+        <v>-52.35976775422969</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>48.98630476934146</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-54.65240751944371</v>
-      </c>
-      <c r="C71" t="n">
-        <v>45.50828275571028</v>
-      </c>
+        <v>-52.31136687634984</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="n">
+        <v>45.59488111965625</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-55.41161106022522</v>
-      </c>
-      <c r="C72" t="n">
-        <v>42.88268520695411</v>
-      </c>
+        <v>-54.65240751944371</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="n">
+        <v>45.50828275571028</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-57.36873737879468</v>
-      </c>
-      <c r="C73" t="n">
-        <v>42.71477780103304</v>
-      </c>
+        <v>-55.41161106022522</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>42.88268520695411</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-57.23584832820285</v>
-      </c>
-      <c r="C74" t="n">
-        <v>37.67021488922664</v>
-      </c>
+        <v>-57.36873737879468</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>42.71477780103304</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-57.23173333366993</v>
-      </c>
-      <c r="C75" t="n">
-        <v>37.71134159443363</v>
-      </c>
+        <v>-57.23584832820285</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>37.67021488922664</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-57.21741024601572</v>
-      </c>
-      <c r="C76" t="n">
-        <v>32.2229449100624</v>
-      </c>
+        <v>-57.23173333366993</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="n">
+        <v>37.71134159443363</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-58.29288511716303</v>
-      </c>
-      <c r="C77" t="n">
-        <v>31.95922384351385</v>
-      </c>
+        <v>-57.21741024601572</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="n">
+        <v>32.2229449100624</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-58.37973019186239</v>
-      </c>
-      <c r="C78" t="n">
-        <v>25.78215407268807</v>
-      </c>
+        <v>-58.29288511716303</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="n">
+        <v>31.95922384351385</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-58.25184176046501</v>
-      </c>
-      <c r="C79" t="n">
-        <v>25.60442859170553</v>
-      </c>
+        <v>-58.37973019186239</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>25.78215407268807</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-58.23061504846387</v>
-      </c>
-      <c r="C80" t="n">
-        <v>21.61226245088513</v>
-      </c>
+        <v>-58.25184176046501</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>25.60442859170553</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-58.96870864332292</v>
-      </c>
-      <c r="C81" t="n">
-        <v>21.38370453130164</v>
-      </c>
+        <v>-58.23061504846387</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="n">
+        <v>21.61226245088513</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-58.91187501308637</v>
-      </c>
-      <c r="C82" t="n">
-        <v>16.64677243920314</v>
-      </c>
+        <v>-58.96870864332292</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>21.38370453130164</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-59.17164294422858</v>
-      </c>
-      <c r="C83" t="n">
-        <v>17.0910689923665</v>
-      </c>
+        <v>-58.91187501308637</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="n">
+        <v>16.64677243920314</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-59.12195200870553</v>
-      </c>
-      <c r="C84" t="n">
-        <v>7.753310576886207</v>
-      </c>
+        <v>-59.17164294422858</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="n">
+        <v>17.0910689923665</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-57.59629542038009</v>
-      </c>
-      <c r="C85" t="n">
-        <v>7.895490718631861</v>
-      </c>
+        <v>-59.12195200870553</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>7.753310576886207</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-57.35328606685098</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-0.3413863488377809</v>
-      </c>
+        <v>-57.59629542038009</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="n">
+        <v>7.895490718631861</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-57.43531569282744</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-0.3918401465933932</v>
-      </c>
+        <v>-57.35328606685098</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="n">
+        <v>-0.3413863488377809</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-57.15581875076103</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-8.158521642408084</v>
-      </c>
+        <v>-57.43531569282744</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>-0.3918401465933932</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-55.61360731419045</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-8.270820438972695</v>
-      </c>
+        <v>-57.15581875076103</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>-8.158521642408084</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-55.03973269564935</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-13.68639678113798</v>
-      </c>
+        <v>-55.61360731419045</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="n">
+        <v>-8.270820438972695</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="n">
-        <v>-14.14664829999706</v>
-      </c>
+      <c r="B91" t="n">
+        <v>-55.03973269564935</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="n">
+        <v>-13.68639678113798</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="inlineStr"/>
-      <c r="C92" t="n">
-        <v>-19.78527060665652</v>
-      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="n">
+        <v>-14.14664829999706</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="inlineStr"/>
-      <c r="C93" t="n">
-        <v>-19.87670664577862</v>
-      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="n">
+        <v>-19.78527060665652</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="inlineStr"/>
-      <c r="C94" t="n">
-        <v>-24.86707404255505</v>
-      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="n">
+        <v>-19.87670664577862</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="n">
-        <v>-24.86078196155756</v>
-      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="n">
+        <v>-24.86707404255505</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="inlineStr"/>
-      <c r="C96" t="n">
-        <v>-30.83701942701437</v>
-      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="n">
+        <v>-24.86078196155756</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="inlineStr"/>
-      <c r="C97" t="n">
-        <v>-30.16086175728076</v>
-      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="n">
+        <v>-30.83701942701437</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" t="n">
-        <v>-35.57351799835041</v>
-      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="n">
+        <v>-30.16086175728076</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="n">
-        <v>-35.07200206165442</v>
-      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="n">
+        <v>-35.57351799835041</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="inlineStr"/>
-      <c r="C100" t="n">
-        <v>-39.92101914278808</v>
-      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="n">
+        <v>-35.07200206165442</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="n">
-        <v>-39.37580713580014</v>
-      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="n">
+        <v>-39.92101914278808</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="inlineStr"/>
-      <c r="C102" t="n">
-        <v>-41.80909496544925</v>
-      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="n">
+        <v>-39.37580713580014</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="n">
-        <v>-42.13525141264986</v>
-      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="n">
+        <v>-41.80909496544925</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" t="n">
-        <v>-40.10893405976753</v>
-      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="n">
+        <v>-42.13525141264986</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="inlineStr"/>
-      <c r="C105" t="n">
-        <v>-39.9212748401225</v>
-      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="n">
+        <v>-40.10893405976753</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="n">
-        <v>-41.54084746523228</v>
-      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="n">
+        <v>-39.9212748401225</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="n">
-        <v>-41.53857798076389</v>
-      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="n">
+        <v>-41.54084746523228</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="n">
-        <v>-42.08328214965618</v>
-      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="n">
+        <v>-41.53857798076389</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="n">
-        <v>-41.91958634802678</v>
-      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="n">
+        <v>-42.08328214965618</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="n">
-        <v>-42.80284978376412</v>
-      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="n">
+        <v>-41.91958634802678</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="inlineStr"/>
-      <c r="C111" t="n">
-        <v>-42.29093607417603</v>
-      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="n">
+        <v>-42.80284978376412</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="n">
-        <v>-41.74712844415206</v>
-      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="n">
+        <v>-42.29093607417603</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="n">
-        <v>-41.82200942568744</v>
-      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="n">
+        <v>-41.74712844415206</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="n">
-        <v>-41.66287888419061</v>
-      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="n">
+        <v>-41.82200942568744</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="inlineStr"/>
-      <c r="C115" t="n">
-        <v>-41.67414838975109</v>
-      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="n">
+        <v>-41.66287888419061</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="inlineStr"/>
-      <c r="C116" t="n">
-        <v>-42.31447095667084</v>
-      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>-41.67414838975109</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="n">
-        <v>-42.28364448892804</v>
-      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>-42.31447095667084</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="inlineStr"/>
-      <c r="C118" t="n">
-        <v>-42.42211744075089</v>
-      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="n">
+        <v>-42.28364448892804</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" t="n">
-        <v>-42.39053192115792</v>
-      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="n">
+        <v>-42.42211744075089</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="inlineStr"/>
-      <c r="C120" t="n">
-        <v>-43.08937693398768</v>
-      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="n">
+        <v>-42.39053192115792</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="inlineStr"/>
-      <c r="C121" t="n">
-        <v>-42.71325995298748</v>
-      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="n">
+        <v>-43.08937693398768</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="n">
-        <v>-42.49057555997891</v>
-      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="n">
+        <v>-42.71325995298748</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="n">
-        <v>-42.33617881805385</v>
-      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="n">
+        <v>-42.49057555997891</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="n">
-        <v>-44.04713455056511</v>
-      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="n">
+        <v>-42.33617881805385</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="inlineStr"/>
-      <c r="C125" t="n">
-        <v>-43.73113760106225</v>
-      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="n">
+        <v>-44.04713455056511</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="inlineStr"/>
-      <c r="C126" t="n">
-        <v>-46.39380021581366</v>
-      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="n">
+        <v>-43.73113760106225</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="inlineStr"/>
-      <c r="C127" t="n">
-        <v>-46.17968910565661</v>
-      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="n">
+        <v>-46.39380021581366</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="inlineStr"/>
-      <c r="C128" t="n">
-        <v>-44.58213635251072</v>
-      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="n">
+        <v>-46.17968910565661</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="inlineStr"/>
-      <c r="C129" t="n">
-        <v>-44.59791340513489</v>
-      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="n">
+        <v>-44.58213635251072</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="inlineStr"/>
-      <c r="C130" t="n">
-        <v>-46.94369909903845</v>
-      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="n">
+        <v>-44.59791340513489</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="inlineStr"/>
-      <c r="C131" t="n">
-        <v>-46.86612184188771</v>
-      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="n">
+        <v>-46.94369909903845</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="inlineStr"/>
-      <c r="C132" t="n">
-        <v>-46.85431151109442</v>
-      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="n">
+        <v>-46.86612184188771</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="inlineStr"/>
-      <c r="C133" t="n">
-        <v>-46.8372931843646</v>
-      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="n">
+        <v>-46.85431151109442</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="inlineStr"/>
-      <c r="C134" t="n">
-        <v>-47.22766715414139</v>
-      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="n">
+        <v>-46.8372931843646</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="n">
-        <v>-47.12893217698787</v>
-      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="n">
+        <v>-47.22766715414139</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="inlineStr"/>
-      <c r="C136" t="n">
-        <v>-47.28872075549947</v>
-      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="n">
+        <v>-47.12893217698787</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="n">
-        <v>-47.34521658524827</v>
-      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="n">
+        <v>-47.28872075549947</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="inlineStr"/>
-      <c r="C138" t="n">
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="n">
+        <v>-47.34521658524827</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="n">
         <v>-46.63010551818694</v>
       </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C138"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>stride_1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>stride_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-46.75168969560877</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-51.92688633380214</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-44.83071841906849</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-51.83779181583103</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-44.8481805435221</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-51.51782957416747</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-44.75492354447315</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-51.41303122346519</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-44.72924957563102</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-50.81566623427659</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-44.19298727252374</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-50.75769269799341</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-44.23481344269494</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-50.23966354700006</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-44.00468557631628</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-50.20964729828195</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-43.9787933494643</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-49.0978792408548</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-42.80438216117813</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-49.07211197745176</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-42.76015665046231</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-47.78897537833203</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-40.69928925287295</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-47.7958280094732</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-40.63850885730923</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-46.3922596426024</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-38.14622751838709</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-46.37508075925156</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-38.07164032723038</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-44.62753856385864</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-35.02278970511302</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-44.62094110496007</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-34.91483671132379</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-42.55856414188346</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-31.5001072333311</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-42.4753267520235</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>-31.45330433405001</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-40.44429932330851</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>-27.93573994901804</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-40.34486769774901</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-27.8232518430706</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-38.51030041506665</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>-23.86945685081137</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-38.40187262961739</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>-23.82154144160052</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-36.91515643305567</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>-20.5646142766676</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-36.90629856565342</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-20.58533991471946</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-35.54275523599352</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>-16.13480254301074</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-35.52868698004857</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>-16.13572964480485</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-34.5565661990497</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>-12.74028708700653</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-34.51738611100471</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>-12.361693860797</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-33.12049302428076</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>-8.708247030858246</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-33.08676589150286</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>-8.528961499632056</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-32.43618435405374</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>-4.874905606562535</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-32.36537691672401</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>-4.752185526203153</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-30.77366851361353</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.5197164085023671</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-30.65898811084703</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.5197494741721226</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-29.50113939474235</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>4.014605484254801</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-29.49735997220353</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>3.918877539897806</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-28.03386986726526</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>8.682660745110558</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-28.06496700780626</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>8.779223751762324</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-26.6398897367827</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>12.8162378635622</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-26.61145499821897</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>12.80009113486424</v>
-      </c>
-      <c r="C42" t="n">
-        <v>-25.11729261729521</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>17.25031077318013</v>
-      </c>
-      <c r="C43" t="n">
-        <v>-25.04984501904162</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>17.24546886031824</v>
-      </c>
-      <c r="C44" t="n">
-        <v>-23.13498661469987</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>21.14338995070203</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-23.15116640921881</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>21.31608620440457</v>
-      </c>
-      <c r="C46" t="n">
-        <v>-22.10119555675697</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>25.08933964769394</v>
-      </c>
-      <c r="C47" t="n">
-        <v>-22.10931555206849</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>25.13621058424924</v>
-      </c>
-      <c r="C48" t="n">
-        <v>-20.34812357345799</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>28.19409182796007</v>
-      </c>
-      <c r="C49" t="n">
-        <v>-20.39985192793297</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>28.13177748158073</v>
-      </c>
-      <c r="C50" t="n">
-        <v>-18.27412890601134</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>30.97801126034732</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-18.24473520189202</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>30.95553736154323</v>
-      </c>
-      <c r="C52" t="n">
-        <v>-16.03222117343085</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>33.26214906850846</v>
-      </c>
-      <c r="C53" t="n">
-        <v>-15.89658053752148</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>33.31992952022176</v>
-      </c>
-      <c r="C54" t="n">
-        <v>-14.01081296096522</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>35.97980180337329</v>
-      </c>
-      <c r="C55" t="n">
-        <v>-13.97776094709218</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>36.01834738434743</v>
-      </c>
-      <c r="C56" t="n">
-        <v>-12.16936102859185</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>38.47793547088872</v>
-      </c>
-      <c r="C57" t="n">
-        <v>-12.13497653339183</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>38.56030952321262</v>
-      </c>
-      <c r="C58" t="n">
-        <v>-9.890231906533037</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>40.72742241127428</v>
-      </c>
-      <c r="C59" t="n">
-        <v>-9.882450420886441</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>40.80809220599632</v>
-      </c>
-      <c r="C60" t="n">
-        <v>-7.591195707245687</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>41.94640987752346</v>
-      </c>
-      <c r="C61" t="n">
-        <v>-7.548986829134664</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>42.04539982589829</v>
-      </c>
-      <c r="C62" t="n">
-        <v>-5.822424227856259</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>42.67951029857109</v>
-      </c>
-      <c r="C63" t="n">
-        <v>-5.877330360079876</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>42.65031503320894</v>
-      </c>
-      <c r="C64" t="n">
-        <v>-3.568527112417007</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>42.87623153046268</v>
-      </c>
-      <c r="C65" t="n">
-        <v>-3.455973591422483</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>43.00016517073006</v>
-      </c>
-      <c r="C66" t="n">
-        <v>-1.061479138772403</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>43.68143574958274</v>
-      </c>
-      <c r="C67" t="n">
-        <v>-1.064181540260815</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>43.75086663344001</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1.043656324302144</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>45.10031563300995</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1.15578347410097</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>45.10404874036617</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2.864280807489441</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>46.36702420828312</v>
-      </c>
-      <c r="C71" t="n">
-        <v>2.989790119499866</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>46.62761073959481</v>
-      </c>
-      <c r="C72" t="n">
-        <v>4.716240832284003</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>47.87172549363024</v>
-      </c>
-      <c r="C73" t="n">
-        <v>4.775983733780213</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>47.95338726484671</v>
-      </c>
-      <c r="C74" t="n">
-        <v>7.078111242500161</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>48.91696747403055</v>
-      </c>
-      <c r="C75" t="n">
-        <v>7.138035209226141</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>48.90222013412429</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9.23601033692006</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>50.34413645161931</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9.249237092776127</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>50.39068081678712</v>
-      </c>
-      <c r="C78" t="n">
-        <v>11.5483102018695</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>51.24105386040347</v>
-      </c>
-      <c r="C79" t="n">
-        <v>11.70831344944961</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>51.30121212861454</v>
-      </c>
-      <c r="C80" t="n">
-        <v>14.17677618989261</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>52.31943617069635</v>
-      </c>
-      <c r="C81" t="n">
-        <v>14.22608970274459</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>52.3091129708738</v>
-      </c>
-      <c r="C82" t="n">
-        <v>16.58257438396609</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>52.99922642624788</v>
-      </c>
-      <c r="C83" t="n">
-        <v>16.54642203489468</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>52.98087539126522</v>
-      </c>
-      <c r="C84" t="n">
-        <v>18.93123826690054</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>53.06291715645892</v>
-      </c>
-      <c r="C85" t="n">
-        <v>18.96137574325776</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>53.03074585467025</v>
-      </c>
-      <c r="C86" t="n">
-        <v>21.56093679009285</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>53.45681643682232</v>
-      </c>
-      <c r="C87" t="n">
-        <v>21.59179506506302</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>53.42616497160984</v>
-      </c>
-      <c r="C88" t="n">
-        <v>24.12000665335558</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>53.57728318655</v>
-      </c>
-      <c r="C89" t="n">
-        <v>24.18910684157807</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>53.56296477252577</v>
-      </c>
-      <c r="C90" t="n">
-        <v>26.49389639180027</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="n">
-        <v>26.65613649003681</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="n">
-        <v>28.57722759440831</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="n">
-        <v>28.73985676019544</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="n">
-        <v>30.90998573089497</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="n">
-        <v>30.9528331013754</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="n">
-        <v>33.26748766609091</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="n">
-        <v>33.39307081019745</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="n">
-        <v>35.39856412426091</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="n">
-        <v>35.47386673749938</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="n">
-        <v>37.54693324605313</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="n">
-        <v>37.51424264722222</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="n">
-        <v>39.52061810836325</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="n">
-        <v>39.5800492273889</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="n">
-        <v>40.84058128476519</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="n">
-        <v>40.8657643406549</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="n">
-        <v>42.13196225311023</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="n">
-        <v>42.11866387016421</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="n">
-        <v>43.33720766627113</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="n">
-        <v>43.38196136353176</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="n">
-        <v>43.94947254141099</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="n">
-        <v>44.00003344179427</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="n">
-        <v>44.50982415121121</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="n">
-        <v>44.51099538185435</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="n">
-        <v>45.25081001282463</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="n">
-        <v>45.25215896152888</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="n">
-        <v>46.07362527798687</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="n">
-        <v>46.0937795669325</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="n">
-        <v>46.94283415927994</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="n">
-        <v>46.98637729182504</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="n">
-        <v>47.82510090019509</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="n">
-        <v>47.80893860465982</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="n">
-        <v>48.44929026027745</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="n">
-        <v>48.38104500632405</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="n">
-        <v>49.13951293088308</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="n">
-        <v>49.15205272302115</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="n">
-        <v>49.85284767375476</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="n">
-        <v>49.79023820825424</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="n">
-        <v>50.6286386174806</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="n">
-        <v>50.63479181507053</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr"/>
-      <c r="C130" t="n">
-        <v>50.98116279060153</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="n">
-        <v>50.95129055314272</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="n">
-        <v>51.08423390119003</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="n">
-        <v>51.08664997597631</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="n">
-        <v>51.99003352457248</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="n">
-        <v>51.98463959755631</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="n">
-        <v>51.95413862720888</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="n">
-        <v>51.95727342068572</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="n">
-        <v>52.06097812236989</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3337,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>82.67592182453004</v>
+        <v>82.8517019980858</v>
       </c>
       <c r="C2" t="n">
-        <v>89.69570399528514</v>
+        <v>89.4127959576679</v>
       </c>
     </row>
     <row r="3">
@@ -3348,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>82.60957604429764</v>
+        <v>82.67592182453004</v>
       </c>
       <c r="C3" t="n">
-        <v>89.36897862416492</v>
+        <v>89.68896080854336</v>
       </c>
     </row>
     <row r="4">
@@ -3359,10 +3454,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>82.77593436447781</v>
+        <v>82.52315148310883</v>
       </c>
       <c r="C4" t="n">
-        <v>89.12211664000776</v>
+        <v>89.44961699240146</v>
       </c>
     </row>
     <row r="5">
@@ -3370,10 +3465,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>83.26152870253797</v>
+        <v>82.77593436447781</v>
       </c>
       <c r="C5" t="n">
-        <v>88.80579296207877</v>
+        <v>89.16088670815844</v>
       </c>
     </row>
     <row r="6">
@@ -3381,10 +3476,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>85.40028427264662</v>
+        <v>85.16082758575827</v>
       </c>
       <c r="C6" t="n">
-        <v>89.14927975342279</v>
+        <v>88.82056853412344</v>
       </c>
     </row>
     <row r="7">
@@ -3392,10 +3487,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>87.55209066340208</v>
+        <v>85.40028427264662</v>
       </c>
       <c r="C7" t="n">
-        <v>88.67220423316026</v>
+        <v>88.91306134213549</v>
       </c>
     </row>
     <row r="8">
@@ -3403,10 +3498,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>89.2805436383304</v>
+        <v>87.75524557575081</v>
       </c>
       <c r="C8" t="n">
-        <v>88.2357587303316</v>
+        <v>88.53778856084651</v>
       </c>
     </row>
     <row r="9">
@@ -3414,10 +3509,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89.31751396777416</v>
+        <v>89.2805436383304</v>
       </c>
       <c r="C9" t="n">
-        <v>89.69378469419487</v>
+        <v>88.25794319276383</v>
       </c>
     </row>
     <row r="10">
@@ -3425,10 +3520,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89.23074194872306</v>
+        <v>89.25884212930463</v>
       </c>
       <c r="C10" t="n">
-        <v>88.96314114962192</v>
+        <v>89.77116322178493</v>
       </c>
     </row>
     <row r="11">
@@ -3436,10 +3531,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>89.64115566638294</v>
+        <v>89.23074194872306</v>
       </c>
       <c r="C11" t="n">
-        <v>88.38640102213773</v>
+        <v>88.9643102513018</v>
       </c>
     </row>
     <row r="12">
@@ -3447,10 +3542,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>89.61964016475704</v>
+        <v>89.70893078931566</v>
       </c>
       <c r="C12" t="n">
-        <v>87.4616136155163</v>
+        <v>88.70892888471634</v>
       </c>
     </row>
     <row r="13">
@@ -3458,10 +3553,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>89.60403962015234</v>
+        <v>89.61964016475704</v>
       </c>
       <c r="C13" t="n">
-        <v>87.55099720116928</v>
+        <v>87.45117850070577</v>
       </c>
     </row>
     <row r="14">
@@ -3469,10 +3564,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>89.75046978010913</v>
+        <v>89.84249523185841</v>
       </c>
       <c r="C14" t="n">
-        <v>87.88805844399521</v>
+        <v>87.62814556707491</v>
       </c>
     </row>
     <row r="15">
@@ -3480,7 +3575,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>88.61375929838005</v>
+        <v>89.75046978010913</v>
       </c>
       <c r="C15" t="n">
         <v>87.75581199277659</v>
@@ -3491,7 +3586,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>86.8388844516771</v>
+        <v>88.43974383617382</v>
       </c>
       <c r="C16" t="n">
         <v>87.12097692140219</v>
@@ -3502,7 +3597,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>87.12143532482732</v>
+        <v>86.8388844516771</v>
       </c>
       <c r="C17" t="n">
         <v>85.8634340523442</v>
@@ -3513,7 +3608,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>84.35233099273609</v>
+        <v>84.44854471766541</v>
       </c>
       <c r="C18" t="n">
         <v>86.10080982236197</v>
@@ -3524,10 +3619,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>82.06877743826431</v>
+        <v>84.35233099273609</v>
       </c>
       <c r="C19" t="n">
-        <v>85.07541845835641</v>
+        <v>85.13364815568926</v>
       </c>
     </row>
     <row r="20">
@@ -3535,10 +3630,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>79.27573850596754</v>
+        <v>82.2085089454161</v>
       </c>
       <c r="C20" t="n">
-        <v>84.54913276316999</v>
+        <v>84.62649758727525</v>
       </c>
     </row>
     <row r="21">
@@ -3546,10 +3641,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>79.42761286424762</v>
+        <v>79.27573850596754</v>
       </c>
       <c r="C21" t="n">
-        <v>82.42413298274478</v>
+        <v>82.69271590440752</v>
       </c>
     </row>
     <row r="22">
@@ -3557,10 +3652,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>75.48814679861455</v>
+        <v>75.19175278622141</v>
       </c>
       <c r="C22" t="n">
-        <v>81.44270997663587</v>
+        <v>81.37971161751486</v>
       </c>
     </row>
     <row r="23">
@@ -3568,10 +3663,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>72.96149020199631</v>
+        <v>75.48814679861455</v>
       </c>
       <c r="C23" t="n">
-        <v>81.37723981970839</v>
+        <v>81.90335079552982</v>
       </c>
     </row>
     <row r="24">
@@ -3579,10 +3674,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>67.6217237213317</v>
+        <v>72.46737200601819</v>
       </c>
       <c r="C24" t="n">
-        <v>79.62838732789005</v>
+        <v>80.20189208532331</v>
       </c>
     </row>
     <row r="25">
@@ -3590,10 +3685,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>66.77309269162097</v>
+        <v>67.6217237213317</v>
       </c>
       <c r="C25" t="n">
-        <v>77.99087102725987</v>
+        <v>78.8646647891982</v>
       </c>
     </row>
     <row r="26">
@@ -3601,10 +3696,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>55.72497805959769</v>
+        <v>55.37445407073608</v>
       </c>
       <c r="C26" t="n">
-        <v>77.45823025755125</v>
+        <v>77.57176907864213</v>
       </c>
     </row>
     <row r="27">
@@ -3612,10 +3707,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>45.58904493030823</v>
+        <v>55.72497805959769</v>
       </c>
       <c r="C27" t="n">
-        <v>75.36867528890974</v>
+        <v>75.44736607760053</v>
       </c>
     </row>
     <row r="28">
@@ -3626,7 +3721,7 @@
         <v>45.01251286146598</v>
       </c>
       <c r="C28" t="n">
-        <v>72.85067534631779</v>
+        <v>72.91952498617378</v>
       </c>
     </row>
     <row r="29">
@@ -3634,10 +3729,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>32.72045268658167</v>
+        <v>33.18340476389815</v>
       </c>
       <c r="C29" t="n">
-        <v>71.72396682959889</v>
+        <v>71.74522837704428</v>
       </c>
     </row>
     <row r="30">
@@ -3648,7 +3743,7 @@
         <v>22.66963632314985</v>
       </c>
       <c r="C30" t="n">
-        <v>68.29260084468847</v>
+        <v>68.81228368149181</v>
       </c>
     </row>
     <row r="31">
@@ -3656,10 +3751,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.665865632922014</v>
+        <v>22.202693982559</v>
       </c>
       <c r="C31" t="n">
-        <v>66.84888768265347</v>
+        <v>66.89779963718362</v>
       </c>
     </row>
     <row r="32">
@@ -3670,7 +3765,7 @@
         <v>6.665494666836938</v>
       </c>
       <c r="C32" t="n">
-        <v>63.63835587339447</v>
+        <v>63.70469314309043</v>
       </c>
     </row>
     <row r="33">
@@ -3678,10 +3773,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.4574194727587749</v>
+        <v>-0.1291211867596541</v>
       </c>
       <c r="C33" t="n">
-        <v>60.20388186405171</v>
+        <v>60.7890022630221</v>
       </c>
     </row>
     <row r="34">
@@ -3692,7 +3787,7 @@
         <v>-8.514325538918319</v>
       </c>
       <c r="C34" t="n">
-        <v>55.13295681525342</v>
+        <v>55.83431257647368</v>
       </c>
     </row>
     <row r="35">
@@ -3700,10 +3795,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-20.95777912166355</v>
+        <v>-8.502639583478782</v>
       </c>
       <c r="C35" t="n">
-        <v>52.25683127389556</v>
+        <v>52.41387355706805</v>
       </c>
     </row>
     <row r="36">
@@ -3714,7 +3809,7 @@
         <v>-20.70354432352652</v>
       </c>
       <c r="C36" t="n">
-        <v>48.98630476934146</v>
+        <v>49.09843148180736</v>
       </c>
     </row>
     <row r="37">
@@ -3722,10 +3817,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-26.07764488957871</v>
+        <v>-26.68793254629334</v>
       </c>
       <c r="C37" t="n">
-        <v>45.50828275571028</v>
+        <v>45.59488111965625</v>
       </c>
     </row>
     <row r="38">
@@ -3736,7 +3831,7 @@
         <v>-32.62901223719046</v>
       </c>
       <c r="C38" t="n">
-        <v>42.71477780103304</v>
+        <v>42.88268520695411</v>
       </c>
     </row>
     <row r="39">
@@ -3744,10 +3839,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-36.91795433212066</v>
+        <v>-32.64559466947397</v>
       </c>
       <c r="C39" t="n">
-        <v>37.71134159443363</v>
+        <v>37.67021488922664</v>
       </c>
     </row>
     <row r="40">
@@ -3766,7 +3861,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-40.5537425098918</v>
+        <v>-40.7948544458697</v>
       </c>
       <c r="C41" t="n">
         <v>25.78215407268807</v>
@@ -3788,7 +3883,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-45.47668710038461</v>
+        <v>-43.6940674962264</v>
       </c>
       <c r="C43" t="n">
         <v>16.64677243920314</v>
@@ -3810,7 +3905,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-46.48643927178647</v>
+        <v>-46.1946401526104</v>
       </c>
       <c r="C45" t="n">
         <v>-0.3413863488377809</v>
@@ -3832,7 +3927,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-52.35976775422969</v>
+        <v>-48.76933577222581</v>
       </c>
       <c r="C47" t="n">
         <v>-13.68639678113798</v>
@@ -3854,7 +3949,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-55.41161106022522</v>
+        <v>-54.65240751944371</v>
       </c>
       <c r="C49" t="n">
         <v>-24.86707404255505</v>
@@ -3876,7 +3971,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-57.23173333366993</v>
+        <v>-57.23584832820285</v>
       </c>
       <c r="C51" t="n">
         <v>-35.57351799835041</v>
@@ -3887,10 +3982,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-57.21741024601572</v>
+        <v>-57.23173333366993</v>
       </c>
       <c r="C52" t="n">
-        <v>-39.92101914278808</v>
+        <v>-35.07200206165442</v>
       </c>
     </row>
     <row r="53">
@@ -3901,7 +3996,7 @@
         <v>-58.29288511716303</v>
       </c>
       <c r="C53" t="n">
-        <v>-41.80909496544925</v>
+        <v>-39.37580713580014</v>
       </c>
     </row>
     <row r="54">
@@ -3909,10 +4004,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-58.25184176046501</v>
+        <v>-58.37973019186239</v>
       </c>
       <c r="C54" t="n">
-        <v>-40.10893405976753</v>
+        <v>-42.13525141264986</v>
       </c>
     </row>
     <row r="55">
@@ -3923,7 +4018,7 @@
         <v>-58.23061504846387</v>
       </c>
       <c r="C55" t="n">
-        <v>-41.54084746523228</v>
+        <v>-39.9212748401225</v>
       </c>
     </row>
     <row r="56">
@@ -3931,10 +4026,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-58.91187501308637</v>
+        <v>-58.96870864332292</v>
       </c>
       <c r="C56" t="n">
-        <v>-42.08328214965618</v>
+        <v>-41.53857798076389</v>
       </c>
     </row>
     <row r="57">
@@ -3945,7 +4040,7 @@
         <v>-59.17164294422858</v>
       </c>
       <c r="C57" t="n">
-        <v>-42.80284978376412</v>
+        <v>-41.91958634802678</v>
       </c>
     </row>
     <row r="58">
@@ -3953,10 +4048,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-57.59629542038009</v>
+        <v>-59.12195200870553</v>
       </c>
       <c r="C58" t="n">
-        <v>-41.74712844415206</v>
+        <v>-42.29093607417603</v>
       </c>
     </row>
     <row r="59">
@@ -3967,7 +4062,7 @@
         <v>-57.35328606685098</v>
       </c>
       <c r="C59" t="n">
-        <v>-41.66287888419061</v>
+        <v>-41.82200942568744</v>
       </c>
     </row>
     <row r="60">
@@ -3975,10 +4070,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-57.15581875076103</v>
+        <v>-57.43531569282744</v>
       </c>
       <c r="C60" t="n">
-        <v>-42.31447095667084</v>
+        <v>-41.67414838975109</v>
       </c>
     </row>
     <row r="61">
@@ -3989,7 +4084,7 @@
         <v>-55.61360731419045</v>
       </c>
       <c r="C61" t="n">
-        <v>-42.42211744075089</v>
+        <v>-42.28364448892804</v>
       </c>
     </row>
     <row r="62">
@@ -3997,10 +4092,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-53.79910774870617</v>
+        <v>-55.03973269564935</v>
       </c>
       <c r="C62" t="n">
-        <v>-43.08937693398768</v>
+        <v>-42.39053192115792</v>
       </c>
     </row>
     <row r="63">
@@ -4011,7 +4106,7 @@
         <v>-53.66626788532035</v>
       </c>
       <c r="C63" t="n">
-        <v>-42.49057555997891</v>
+        <v>-42.71325995298748</v>
       </c>
     </row>
     <row r="64">
@@ -4019,10 +4114,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-53.93575715955121</v>
+        <v>-54.00863314209024</v>
       </c>
       <c r="C64" t="n">
-        <v>-44.04713455056511</v>
+        <v>-42.33617881805385</v>
       </c>
     </row>
     <row r="65">
@@ -4041,7 +4136,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-50.82983282702708</v>
+        <v>-52.49133193983738</v>
       </c>
       <c r="C66" t="n">
         <v>-46.17968910565661</v>
@@ -4063,7 +4158,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-51.21979722534576</v>
+        <v>-51.31179773890015</v>
       </c>
       <c r="C68" t="n">
         <v>-46.86612184188771</v>
@@ -4085,7 +4180,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-48.42259815859772</v>
+        <v>-49.1476775335525</v>
       </c>
       <c r="C70" t="n">
         <v>-47.12893217698787</v>
@@ -4107,7 +4202,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-45.68132026219457</v>
+        <v>-45.65145887510888</v>
       </c>
       <c r="C72" t="n">
         <v>-46.73701877923453</v>
@@ -4129,7 +4224,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-37.29837251466299</v>
+        <v>-43.57702144519914</v>
       </c>
       <c r="C74" t="n">
         <v>-44.54497822140713</v>
@@ -4151,7 +4246,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-31.42693201904016</v>
+        <v>-31.12366222956646</v>
       </c>
       <c r="C76" t="n">
         <v>-42.34750047987583</v>
@@ -4264,7 +4359,7 @@
         <v>62.02698300732927</v>
       </c>
       <c r="C86" t="n">
-        <v>59.16148412489569</v>
+        <v>58.61297931492008</v>
       </c>
     </row>
     <row r="87">
@@ -4275,7 +4370,7 @@
         <v>61.06582494153989</v>
       </c>
       <c r="C87" t="n">
-        <v>77.27510834737924</v>
+        <v>76.80846831764455</v>
       </c>
     </row>
     <row r="88">
@@ -4286,7 +4381,7 @@
         <v>60.22476458231548</v>
       </c>
       <c r="C88" t="n">
-        <v>87.23287968784298</v>
+        <v>87.13548438831832</v>
       </c>
     </row>
     <row r="89">
@@ -4297,7 +4392,7 @@
         <v>60.4796307820308</v>
       </c>
       <c r="C89" t="n">
-        <v>85.14431513562616</v>
+        <v>85.27119304413003</v>
       </c>
     </row>
     <row r="90">
@@ -4448,7 +4543,2330 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I139"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_A</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_B</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_AB_midpoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-46.80132802154542</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-46.80132802154542</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53.56296477252577</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.2297380775533</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-52.63929842639025</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-52.63929842639025</v>
+      </c>
+      <c r="H2" t="n">
+        <v>52.06097812236989</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.010032140795206</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-46.75168969560877</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-51.92688633380214</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-44.83071841906849</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-51.83779181583103</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-44.8481805435221</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-51.51782957416747</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-44.75492354447315</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>-51.41303122346519</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-44.72924957563102</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>-50.81566623427659</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-44.19298727252374</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-50.75769269799341</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-44.23481344269494</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>-50.23966354700006</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-44.00468557631628</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-50.20964729828195</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-43.9787933494643</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>-49.0978792408548</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-42.80438216117813</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-49.07211197745176</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-42.76015665046231</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-47.78897537833203</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-40.69928925287295</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-47.7958280094732</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-40.63850885730923</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>-46.3922596426024</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-38.14622751838709</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-46.37508075925156</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-38.07164032723038</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>-44.62753856385864</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-35.02278970511302</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>-44.62094110496007</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-34.91483671132379</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-42.55856414188346</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-31.5001072333311</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>-42.4753267520235</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-31.45330433405001</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>-40.44429932330851</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-27.93573994901804</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>-40.34486769774901</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-27.8232518430706</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-38.51030041506665</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-23.86945685081137</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>-38.40187262961739</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-23.82154144160052</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>-36.91515643305567</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-20.5646142766676</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>-36.90629856565342</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-20.58533991471946</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>-35.54275523599352</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-16.13480254301074</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>-35.52868698004857</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-16.13572964480485</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>-34.5565661990497</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-12.74028708700653</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>-34.51738611100471</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-12.361693860797</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>-33.12049302428076</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-8.708247030858246</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>-33.08676589150286</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-8.528961499632056</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>-32.43618435405374</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-4.874905606562535</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>-32.36537691672401</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-4.752185526203153</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>-30.77366851361353</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.5197164085023671</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>-30.65898811084703</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.5197494741721226</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>-29.50113939474235</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.014605484254801</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>-29.49735997220353</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.918877539897806</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>-28.03386986726526</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>8.682660745110558</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>-28.06496700780626</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>8.779223751762324</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>-26.6398897367827</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12.8162378635622</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>-26.61145499821897</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>12.80009113486424</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>-25.11729261729521</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>17.25031077318013</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>-25.04984501904162</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>17.24546886031824</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>-23.13498661469987</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>21.14338995070203</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>-23.15116640921881</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>21.31608620440457</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>-22.10119555675697</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>25.08933964769394</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>-22.10931555206849</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>25.13621058424924</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>-20.34812357345799</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>28.19409182796007</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>-20.39985192793297</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>28.13177748158073</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>-18.27412890601134</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>30.97801126034732</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>-18.24473520189202</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>30.95553736154323</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>-16.03222117343085</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>33.26214906850846</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>-15.89658053752148</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>33.31992952022176</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>-14.01081296096522</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>35.97980180337329</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>-13.97776094709218</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>36.01834738434743</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>-12.16936102859185</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>38.47793547088872</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>-12.13497653339183</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>38.56030952321262</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>-9.890231906533037</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>40.72742241127428</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>-9.882450420886441</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>40.80809220599632</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>-7.591195707245687</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>41.94640987752346</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>-7.548986829134664</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>42.04539982589829</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>-5.822424227856259</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>42.67951029857109</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>-5.877330360079876</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>42.65031503320894</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>-3.568527112417007</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>42.87623153046268</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>-3.455973591422483</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>43.00016517073006</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>-1.061479138772403</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>43.68143574958274</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>-1.064181540260815</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>43.75086663344001</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>1.043656324302144</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>45.10031563300995</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>1.15578347410097</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>45.10404874036617</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>2.864280807489441</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>46.36702420828312</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>2.989790119499866</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>46.62761073959481</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>4.716240832284003</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>47.87172549363024</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>4.775983733780213</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>47.95338726484671</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>7.078111242500161</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>48.91696747403055</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>7.138035209226141</v>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>48.90222013412429</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>9.23601033692006</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>50.34413645161931</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>9.249237092776127</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>50.39068081678712</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>11.5483102018695</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>51.24105386040347</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>11.70831344944961</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>51.30121212861454</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>14.17677618989261</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>52.31943617069635</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>14.22608970274459</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>52.3091129708738</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>16.58257438396609</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>52.99922642624788</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>16.54642203489468</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>52.98087539126522</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>18.93123826690054</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>53.06291715645892</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>18.96137574325776</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>53.03074585467025</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>21.56093679009285</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>53.45681643682232</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>21.59179506506302</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>53.42616497160984</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>24.12000665335558</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>53.57728318655</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>24.18910684157807</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>53.56296477252577</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>26.49389639180027</v>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>26.65613649003681</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>28.57722759440831</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>28.73985676019544</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>30.90998573089497</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="n">
+        <v>30.9528331013754</v>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>33.26748766609091</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>33.39307081019745</v>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>35.39856412426091</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>35.47386673749938</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>37.54693324605313</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="n">
+        <v>37.51424264722222</v>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="n">
+        <v>39.52061810836325</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>39.5800492273889</v>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>40.84058128476519</v>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="n">
+        <v>40.8657643406549</v>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>42.13196225311023</v>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="n">
+        <v>42.11866387016421</v>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>43.33720766627113</v>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="n">
+        <v>43.38196136353176</v>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="n">
+        <v>43.94947254141099</v>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="n">
+        <v>44.00003344179427</v>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>44.50982415121121</v>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="n">
+        <v>44.51099538185435</v>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="n">
+        <v>45.25081001282463</v>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>45.25215896152888</v>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>46.07362527798687</v>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="n">
+        <v>46.0937795669325</v>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="n">
+        <v>46.94283415927994</v>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="n">
+        <v>46.98637729182504</v>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="n">
+        <v>47.82510090019509</v>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="n">
+        <v>47.80893860465982</v>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="n">
+        <v>48.44929026027745</v>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="n">
+        <v>48.38104500632405</v>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="n">
+        <v>49.13951293088308</v>
+      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="n">
+        <v>49.15205272302115</v>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="n">
+        <v>49.85284767375476</v>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="n">
+        <v>49.79023820825424</v>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="n">
+        <v>50.6286386174806</v>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="n">
+        <v>50.63479181507053</v>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="n">
+        <v>50.98116279060153</v>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="n">
+        <v>50.95129055314272</v>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="n">
+        <v>51.08423390119003</v>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="n">
+        <v>51.08664997597631</v>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="n">
+        <v>51.99003352457248</v>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="n">
+        <v>51.98463959755631</v>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="n">
+        <v>51.95413862720888</v>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="n">
+        <v>51.95727342068572</v>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="n">
+        <v>52.06097812236989</v>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4479,10 +6897,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-46.75168969560877</v>
+        <v>-46.80132802154542</v>
       </c>
       <c r="C2" t="n">
-        <v>-51.92688633380214</v>
+        <v>-52.63929842639025</v>
       </c>
     </row>
     <row r="3">
@@ -4490,10 +6908,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-44.83071841906849</v>
+        <v>-46.75168969560877</v>
       </c>
       <c r="C3" t="n">
-        <v>-51.51782957416747</v>
+        <v>-51.83779181583103</v>
       </c>
     </row>
     <row r="4">
@@ -4501,10 +6919,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-44.75492354447315</v>
+        <v>-44.8481805435221</v>
       </c>
       <c r="C4" t="n">
-        <v>-50.81566623427659</v>
+        <v>-51.41303122346519</v>
       </c>
     </row>
     <row r="5">
@@ -4512,10 +6930,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-44.72924957563102</v>
+        <v>-44.75492354447315</v>
       </c>
       <c r="C5" t="n">
-        <v>-50.23966354700006</v>
+        <v>-50.75769269799341</v>
       </c>
     </row>
     <row r="6">
@@ -4523,10 +6941,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-44.23481344269494</v>
+        <v>-44.19298727252374</v>
       </c>
       <c r="C6" t="n">
-        <v>-49.0978792408548</v>
+        <v>-50.20964729828195</v>
       </c>
     </row>
     <row r="7">
@@ -4534,10 +6952,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-44.00468557631628</v>
+        <v>-44.23481344269494</v>
       </c>
       <c r="C7" t="n">
-        <v>-47.78897537833203</v>
+        <v>-49.07211197745176</v>
       </c>
     </row>
     <row r="8">
@@ -4545,10 +6963,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-42.80438216117813</v>
+        <v>-43.9787933494643</v>
       </c>
       <c r="C8" t="n">
-        <v>-46.3922596426024</v>
+        <v>-47.7958280094732</v>
       </c>
     </row>
     <row r="9">
@@ -4556,10 +6974,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-42.76015665046231</v>
+        <v>-42.80438216117813</v>
       </c>
       <c r="C9" t="n">
-        <v>-44.62753856385864</v>
+        <v>-46.37508075925156</v>
       </c>
     </row>
     <row r="10">
@@ -4567,10 +6985,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-40.63850885730923</v>
+        <v>-40.69928925287295</v>
       </c>
       <c r="C10" t="n">
-        <v>-42.55856414188346</v>
+        <v>-44.62094110496007</v>
       </c>
     </row>
     <row r="11">
@@ -4578,10 +6996,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-38.14622751838709</v>
+        <v>-40.63850885730923</v>
       </c>
       <c r="C11" t="n">
-        <v>-40.44429932330851</v>
+        <v>-42.4753267520235</v>
       </c>
     </row>
     <row r="12">
@@ -4589,10 +7007,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-35.02278970511302</v>
+        <v>-38.07164032723038</v>
       </c>
       <c r="C12" t="n">
-        <v>-38.51030041506665</v>
+        <v>-40.34486769774901</v>
       </c>
     </row>
     <row r="13">
@@ -4600,10 +7018,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-34.91483671132379</v>
+        <v>-35.02278970511302</v>
       </c>
       <c r="C13" t="n">
-        <v>-36.91515643305567</v>
+        <v>-38.40187262961739</v>
       </c>
     </row>
     <row r="14">
@@ -4611,10 +7029,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-31.45330433405001</v>
+        <v>-31.5001072333311</v>
       </c>
       <c r="C14" t="n">
-        <v>-35.54275523599352</v>
+        <v>-36.90629856565342</v>
       </c>
     </row>
     <row r="15">
@@ -4622,7 +7040,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-27.93573994901804</v>
+        <v>-31.45330433405001</v>
       </c>
       <c r="C15" t="n">
         <v>-35.52868698004857</v>
@@ -4633,7 +7051,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-23.86945685081137</v>
+        <v>-27.8232518430706</v>
       </c>
       <c r="C16" t="n">
         <v>-34.51738611100471</v>
@@ -4644,7 +7062,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-23.82154144160052</v>
+        <v>-23.86945685081137</v>
       </c>
       <c r="C17" t="n">
         <v>-33.08676589150286</v>
@@ -4655,7 +7073,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-20.58533991471946</v>
+        <v>-20.5646142766676</v>
       </c>
       <c r="C18" t="n">
         <v>-32.36537691672401</v>
@@ -4666,10 +7084,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-16.13480254301074</v>
+        <v>-20.58533991471946</v>
       </c>
       <c r="C19" t="n">
-        <v>-30.65898811084703</v>
+        <v>-30.77366851361353</v>
       </c>
     </row>
     <row r="20">
@@ -4677,10 +7095,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-12.74028708700653</v>
+        <v>-16.13572964480485</v>
       </c>
       <c r="C20" t="n">
-        <v>-29.49735997220353</v>
+        <v>-29.50113939474235</v>
       </c>
     </row>
     <row r="21">
@@ -4688,10 +7106,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-12.361693860797</v>
+        <v>-12.74028708700653</v>
       </c>
       <c r="C21" t="n">
-        <v>-28.06496700780626</v>
+        <v>-28.03386986726526</v>
       </c>
     </row>
     <row r="22">
@@ -4699,10 +7117,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-8.528961499632056</v>
+        <v>-8.708247030858246</v>
       </c>
       <c r="C22" t="n">
-        <v>-26.61145499821897</v>
+        <v>-26.6398897367827</v>
       </c>
     </row>
     <row r="23">
@@ -4710,10 +7128,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-4.874905606562535</v>
+        <v>-8.528961499632056</v>
       </c>
       <c r="C23" t="n">
-        <v>-25.04984501904162</v>
+        <v>-25.11729261729521</v>
       </c>
     </row>
     <row r="24">
@@ -4721,10 +7139,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.5197164085023671</v>
+        <v>-4.752185526203153</v>
       </c>
       <c r="C24" t="n">
-        <v>-23.15116640921881</v>
+        <v>-23.13498661469987</v>
       </c>
     </row>
     <row r="25">
@@ -4732,10 +7150,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.5197494741721226</v>
+        <v>-0.5197164085023671</v>
       </c>
       <c r="C25" t="n">
-        <v>-22.10931555206849</v>
+        <v>-22.10119555675697</v>
       </c>
     </row>
     <row r="26">
@@ -4743,10 +7161,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.918877539897806</v>
+        <v>4.014605484254801</v>
       </c>
       <c r="C26" t="n">
-        <v>-20.39985192793297</v>
+        <v>-20.34812357345799</v>
       </c>
     </row>
     <row r="27">
@@ -4754,10 +7172,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>8.682660745110558</v>
+        <v>3.918877539897806</v>
       </c>
       <c r="C27" t="n">
-        <v>-18.24473520189202</v>
+        <v>-18.27412890601134</v>
       </c>
     </row>
     <row r="28">
@@ -4768,7 +7186,7 @@
         <v>8.779223751762324</v>
       </c>
       <c r="C28" t="n">
-        <v>-15.89658053752148</v>
+        <v>-16.03222117343085</v>
       </c>
     </row>
     <row r="29">
@@ -4776,10 +7194,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.80009113486424</v>
+        <v>12.8162378635622</v>
       </c>
       <c r="C29" t="n">
-        <v>-13.97776094709218</v>
+        <v>-14.01081296096522</v>
       </c>
     </row>
     <row r="30">
@@ -4790,7 +7208,7 @@
         <v>17.25031077318013</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.13497653339183</v>
+        <v>-12.16936102859185</v>
       </c>
     </row>
     <row r="31">
@@ -4798,10 +7216,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>21.14338995070203</v>
+        <v>17.24546886031824</v>
       </c>
       <c r="C31" t="n">
-        <v>-9.882450420886441</v>
+        <v>-9.890231906533037</v>
       </c>
     </row>
     <row r="32">
@@ -4812,7 +7230,7 @@
         <v>21.31608620440457</v>
       </c>
       <c r="C32" t="n">
-        <v>-7.548986829134664</v>
+        <v>-7.591195707245687</v>
       </c>
     </row>
     <row r="33">
@@ -4820,10 +7238,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>25.13621058424924</v>
+        <v>25.08933964769394</v>
       </c>
       <c r="C33" t="n">
-        <v>-5.877330360079876</v>
+        <v>-5.822424227856259</v>
       </c>
     </row>
     <row r="34">
@@ -4834,7 +7252,7 @@
         <v>28.19409182796007</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.455973591422483</v>
+        <v>-3.568527112417007</v>
       </c>
     </row>
     <row r="35">
@@ -4842,10 +7260,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>30.97801126034732</v>
+        <v>28.13177748158073</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.064181540260815</v>
+        <v>-1.061479138772403</v>
       </c>
     </row>
     <row r="36">
@@ -4856,7 +7274,7 @@
         <v>30.95553736154323</v>
       </c>
       <c r="C36" t="n">
-        <v>1.15578347410097</v>
+        <v>1.043656324302144</v>
       </c>
     </row>
     <row r="37">
@@ -4864,10 +7282,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>33.31992952022176</v>
+        <v>33.26214906850846</v>
       </c>
       <c r="C37" t="n">
-        <v>2.989790119499866</v>
+        <v>2.864280807489441</v>
       </c>
     </row>
     <row r="38">
@@ -4878,7 +7296,7 @@
         <v>35.97980180337329</v>
       </c>
       <c r="C38" t="n">
-        <v>4.775983733780213</v>
+        <v>4.716240832284003</v>
       </c>
     </row>
     <row r="39">
@@ -4886,10 +7304,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>38.47793547088872</v>
+        <v>36.01834738434743</v>
       </c>
       <c r="C39" t="n">
-        <v>7.138035209226141</v>
+        <v>7.078111242500161</v>
       </c>
     </row>
     <row r="40">
@@ -4908,7 +7326,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>40.80809220599632</v>
+        <v>40.72742241127428</v>
       </c>
       <c r="C41" t="n">
         <v>11.5483102018695</v>
@@ -4930,7 +7348,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>42.67951029857109</v>
+        <v>42.04539982589829</v>
       </c>
       <c r="C43" t="n">
         <v>16.58257438396609</v>
@@ -4952,7 +7370,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>43.00016517073006</v>
+        <v>42.87623153046268</v>
       </c>
       <c r="C45" t="n">
         <v>21.56093679009285</v>
@@ -4974,7 +7392,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>45.10031563300995</v>
+        <v>43.75086663344001</v>
       </c>
       <c r="C47" t="n">
         <v>26.49389639180027</v>
@@ -4996,7 +7414,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>46.62761073959481</v>
+        <v>46.36702420828312</v>
       </c>
       <c r="C49" t="n">
         <v>30.90998573089497</v>
@@ -5018,7 +7436,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>48.91696747403055</v>
+        <v>47.95338726484671</v>
       </c>
       <c r="C51" t="n">
         <v>35.39856412426091</v>
@@ -5029,10 +7447,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>48.90222013412429</v>
+        <v>48.91696747403055</v>
       </c>
       <c r="C52" t="n">
-        <v>37.54693324605313</v>
+        <v>35.47386673749938</v>
       </c>
     </row>
     <row r="53">
@@ -5043,7 +7461,7 @@
         <v>50.34413645161931</v>
       </c>
       <c r="C53" t="n">
-        <v>39.52061810836325</v>
+        <v>37.51424264722222</v>
       </c>
     </row>
     <row r="54">
@@ -5051,10 +7469,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>51.24105386040347</v>
+        <v>50.39068081678712</v>
       </c>
       <c r="C54" t="n">
-        <v>40.84058128476519</v>
+        <v>39.5800492273889</v>
       </c>
     </row>
     <row r="55">
@@ -5065,7 +7483,7 @@
         <v>51.30121212861454</v>
       </c>
       <c r="C55" t="n">
-        <v>42.13196225311023</v>
+        <v>40.8657643406549</v>
       </c>
     </row>
     <row r="56">
@@ -5073,10 +7491,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>52.3091129708738</v>
+        <v>52.31943617069635</v>
       </c>
       <c r="C56" t="n">
-        <v>43.33720766627113</v>
+        <v>42.11866387016421</v>
       </c>
     </row>
     <row r="57">
@@ -5087,7 +7505,7 @@
         <v>52.99922642624788</v>
       </c>
       <c r="C57" t="n">
-        <v>43.94947254141099</v>
+        <v>43.38196136353176</v>
       </c>
     </row>
     <row r="58">
@@ -5095,10 +7513,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>53.06291715645892</v>
+        <v>52.98087539126522</v>
       </c>
       <c r="C58" t="n">
-        <v>44.50982415121121</v>
+        <v>44.00003344179427</v>
       </c>
     </row>
     <row r="59">
@@ -5109,7 +7527,7 @@
         <v>53.03074585467025</v>
       </c>
       <c r="C59" t="n">
-        <v>45.25081001282463</v>
+        <v>44.51099538185435</v>
       </c>
     </row>
     <row r="60">
@@ -5117,10 +7535,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>53.42616497160984</v>
+        <v>53.45681643682232</v>
       </c>
       <c r="C60" t="n">
-        <v>46.07362527798687</v>
+        <v>45.25215896152888</v>
       </c>
     </row>
     <row r="61">
@@ -5131,7 +7549,7 @@
         <v>53.57728318655</v>
       </c>
       <c r="C61" t="n">
-        <v>46.94283415927994</v>
+        <v>46.0937795669325</v>
       </c>
     </row>
     <row r="62">
@@ -5139,10 +7557,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>53.93533487768909</v>
+        <v>53.56296477252577</v>
       </c>
       <c r="C62" t="n">
-        <v>47.82510090019509</v>
+        <v>46.98637729182504</v>
       </c>
     </row>
     <row r="63">
@@ -5153,7 +7571,7 @@
         <v>53.89125535925056</v>
       </c>
       <c r="C63" t="n">
-        <v>48.44929026027745</v>
+        <v>47.80893860465982</v>
       </c>
     </row>
     <row r="64">
@@ -5161,10 +7579,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>54.30789719510611</v>
+        <v>54.3663751516972</v>
       </c>
       <c r="C64" t="n">
-        <v>49.13951293088308</v>
+        <v>48.38104500632405</v>
       </c>
     </row>
     <row r="65">
@@ -5183,7 +7601,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>53.96425556862109</v>
+        <v>54.35157335948525</v>
       </c>
       <c r="C66" t="n">
         <v>49.79023820825424</v>
@@ -5205,7 +7623,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>54.40793411240071</v>
+        <v>54.45940277037374</v>
       </c>
       <c r="C68" t="n">
         <v>50.95129055314272</v>
@@ -5227,7 +7645,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>54.40294665267808</v>
+        <v>54.23136602380816</v>
       </c>
       <c r="C70" t="n">
         <v>51.98463959755631</v>
@@ -5249,7 +7667,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>53.72383735703559</v>
+        <v>53.71684029536176</v>
       </c>
       <c r="C72" t="n">
         <v>52.04456761498491</v>
@@ -5271,7 +7689,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>51.12450712724193</v>
+        <v>52.74299911213943</v>
       </c>
       <c r="C74" t="n">
         <v>52.07290899497285</v>
@@ -5293,7 +7711,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>49.53241423461841</v>
+        <v>49.52037312207807</v>
       </c>
       <c r="C76" t="n">
         <v>51.75137328101909</v>
@@ -5406,7 +7824,7 @@
         <v>-14.65896952322741</v>
       </c>
       <c r="C86" t="n">
-        <v>27.77891757799598</v>
+        <v>27.78357701363894</v>
       </c>
     </row>
     <row r="87">
@@ -5417,7 +7835,7 @@
         <v>-29.08953012835527</v>
       </c>
       <c r="C87" t="n">
-        <v>15.77466230556796</v>
+        <v>15.777506330749</v>
       </c>
     </row>
     <row r="88">
@@ -5428,7 +7846,7 @@
         <v>-37.82847809395732</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7623878278899252</v>
+        <v>0.6854205908378165</v>
       </c>
     </row>
     <row r="89">
@@ -5439,7 +7857,7 @@
         <v>-43.21853978005679</v>
       </c>
       <c r="C89" t="n">
-        <v>-15.02188890906071</v>
+        <v>-14.99166210586408</v>
       </c>
     </row>
     <row r="90">
